--- a/Core.NET/Core.NETStandard_UnitTest/Resources/MusicData/XMLIOTest/xml_io_test_1.xlsx
+++ b/Core.NET/Core.NETStandard_UnitTest/Resources/MusicData/XMLIOTest/xml_io_test_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <x:si>
     <x:t>番号</x:t>
   </x:si>
@@ -28,6 +28,21 @@
     <x:t>ジャンル</x:t>
   </x:si>
   <x:si>
+    <x:t>難易度</x:t>
+  </x:si>
+  <x:si>
+    <x:t>譜面定数</x:t>
+  </x:si>
+  <x:si>
+    <x:t>検証</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEST MUSIC 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POPS &amp; ANIME</x:t>
+  </x:si>
+  <x:si>
     <x:t>BASIC</x:t>
   </x:si>
   <x:si>
@@ -38,18 +53,6 @@
   </x:si>
   <x:si>
     <x:t>MASTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BASIC 検証</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MASTER 検証</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEST MUSIC 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POPS &amp; ANIME</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -400,13 +403,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L2"/>
+  <x:dimension ref="A1:G5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:12">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -428,57 +431,96 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:12">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="F3" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
+      <x:c r="F4" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="n">
+      <x:c r="G4" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="b">
+      <x:c r="G5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
     </x:row>
